--- a/重庆多条件组合查询-代码生成配置.xlsx
+++ b/重庆多条件组合查询-代码生成配置.xlsx
@@ -543,15 +543,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -565,7 +572,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,14 +580,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -596,7 +595,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,66 +603,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,23 +635,74 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,13 +723,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,19 +795,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,121 +843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,13 +861,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,6 +990,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -998,13 +1020,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,32 +1050,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,152 +1066,152 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1222,6 +1229,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1557,8 +1567,8 @@
   <sheetPr/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72072072072072" defaultRowHeight="13.5"/>
@@ -2410,7 +2420,7 @@
       <c r="A24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2446,7 +2456,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2482,7 +2492,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="3"/>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2518,7 +2528,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2554,7 +2564,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="3"/>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2590,7 +2600,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="3"/>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2626,7 +2636,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="3"/>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2662,7 +2672,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="3"/>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -2698,7 +2708,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="3"/>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2734,7 +2744,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="3"/>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -2841,7 +2851,7 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -2879,8 +2889,8 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="7"/>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -2915,8 +2925,8 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="7"/>
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="8"/>
+      <c r="B38" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2951,7 +2961,7 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="7"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="4" t="s">
         <v>110</v>
       </c>
@@ -2987,8 +2997,8 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="7"/>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="8"/>
+      <c r="B40" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -3023,8 +3033,8 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="7"/>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -3059,7 +3069,7 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="7"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="4" t="s">
         <v>118</v>
       </c>
@@ -3095,7 +3105,7 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="7"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="4" t="s">
         <v>120</v>
       </c>
@@ -3131,7 +3141,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="7"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="4" t="s">
         <v>123</v>
       </c>
@@ -3167,7 +3177,7 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="7"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="4" t="s">
         <v>126</v>
       </c>
@@ -3203,7 +3213,7 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="7"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="4" t="s">
         <v>128</v>
       </c>
@@ -3239,7 +3249,7 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="7"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="4" t="s">
         <v>130</v>
       </c>
@@ -3275,7 +3285,7 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="7"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="4" t="s">
         <v>132</v>
       </c>
@@ -3311,7 +3321,7 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="7"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="4" t="s">
         <v>134</v>
       </c>
@@ -3347,7 +3357,7 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="7"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="4" t="s">
         <v>136</v>
       </c>
@@ -3383,7 +3393,7 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="7"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="4" t="s">
         <v>138</v>
       </c>
@@ -3419,7 +3429,7 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="7"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="4" t="s">
         <v>140</v>
       </c>
@@ -3455,7 +3465,7 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="7"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="4" t="s">
         <v>142</v>
       </c>
@@ -3491,7 +3501,7 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="7"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="4" t="s">
         <v>145</v>
       </c>
@@ -3527,7 +3537,7 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="7"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="4" t="s">
         <v>148</v>
       </c>
@@ -3563,8 +3573,8 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="7"/>
-      <c r="B56" s="4" t="s">
+      <c r="A56" s="8"/>
+      <c r="B56" s="6" t="s">
         <v>150</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -3599,8 +3609,8 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="7"/>
-      <c r="B57" s="4" t="s">
+      <c r="A57" s="8"/>
+      <c r="B57" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -3635,8 +3645,8 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="7"/>
-      <c r="B58" s="4" t="s">
+      <c r="A58" s="8"/>
+      <c r="B58" s="6" t="s">
         <v>156</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -3671,8 +3681,8 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="7"/>
-      <c r="B59" s="4" t="s">
+      <c r="A59" s="8"/>
+      <c r="B59" s="6" t="s">
         <v>159</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -3707,8 +3717,8 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="7"/>
-      <c r="B60" s="4" t="s">
+      <c r="A60" s="8"/>
+      <c r="B60" s="6" t="s">
         <v>161</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -3743,8 +3753,8 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="7"/>
-      <c r="B61" s="4" t="s">
+      <c r="A61" s="8"/>
+      <c r="B61" s="6" t="s">
         <v>163</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3779,8 +3789,8 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="7"/>
-      <c r="B62" s="4" t="s">
+      <c r="A62" s="8"/>
+      <c r="B62" s="6" t="s">
         <v>165</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -3815,8 +3825,8 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="8"/>
-      <c r="B63" s="4" t="s">
+      <c r="A63" s="9"/>
+      <c r="B63" s="6" t="s">
         <v>167</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -3866,7 +3876,7 @@
       <c r="E64" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F64" s="10" t="s">
         <v>172</v>
       </c>
       <c r="G64" s="1" t="s">

--- a/重庆多条件组合查询-代码生成配置.xlsx
+++ b/重庆多条件组合查询-代码生成配置.xlsx
@@ -13,8 +13,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>liyongji</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>liyongji:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+枚举值(默认值)/布尔值/整数分段/浮点数分段</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="179">
   <si>
     <t>个性指标分类</t>
   </si>
@@ -22,10 +54,13 @@
     <t>指标名称</t>
   </si>
   <si>
-    <t>字段分段</t>
-  </si>
-  <si>
-    <t>字段间的值</t>
+    <t>字段值域验证</t>
+  </si>
+  <si>
+    <t>字段选项</t>
+  </si>
+  <si>
+    <t>单选/多选</t>
   </si>
   <si>
     <t>字段与字段关系</t>
@@ -55,6 +90,9 @@
     <t>性别</t>
   </si>
   <si>
+    <t>枚举值</t>
+  </si>
+  <si>
     <t>男、女</t>
   </si>
   <si>
@@ -76,6 +114,9 @@
     <t>年龄</t>
   </si>
   <si>
+    <t>整数分段</t>
+  </si>
+  <si>
     <t>0-19，20-40，41-60，60以上</t>
   </si>
   <si>
@@ -106,6 +147,9 @@
     <t>校园用户</t>
   </si>
   <si>
+    <t>布尔值</t>
+  </si>
+  <si>
     <t>是，否</t>
   </si>
   <si>
@@ -224,6 +268,9 @@
   </si>
   <si>
     <t>主套餐费用</t>
+  </si>
+  <si>
+    <t>浮点数分段</t>
   </si>
   <si>
     <t>(0-38],(39-58],(59-68],(69-98],(99-168],168以上</t>
@@ -543,12 +590,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,7 +612,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,26 +633,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -617,6 +657,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -625,11 +680,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -649,37 +704,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,7 +727,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,6 +746,24 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -723,7 +781,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +859,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,43 +889,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,61 +931,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,49 +961,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,17 +1024,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,21 +1050,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,17 +1069,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,6 +1101,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1066,28 +1124,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1096,118 +1154,118 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1565,27 +1623,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72072072072072" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.0540540540541" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1531531531532" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.5405405405405" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7207207207207" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.2612612612613" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54054054054054" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.0540540540541" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.8738738738739" style="1" customWidth="1"/>
-    <col min="9" max="9" width="57.8018018018018" customWidth="1"/>
-    <col min="10" max="10" width="18.5405405405405" customWidth="1"/>
+    <col min="2" max="3" width="23.1531531531532" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5405405405405" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7207207207207" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.2612612612613" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54054054054054" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.0540540540541" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.8738738738739" style="1" customWidth="1"/>
+    <col min="10" max="10" width="57.8018018018018" customWidth="1"/>
+    <col min="11" max="11" width="18.5405405405405" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1604,13 +1662,13 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1619,2288 +1677,2480 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="str">
-        <f t="shared" ref="I2:I64" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C2,"以上","+"),"、",","),"，",",")</f>
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J64" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D2,"以上","+"),"、",","),"，",",")</f>
         <v>男,女</v>
       </c>
-      <c r="J2" t="str">
-        <f t="shared" ref="J2:J64" si="1">_xlfn.SWITCH(D2,"单选","single","多选","multiOr")</f>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K64" si="1">_xlfn.SWITCH(E2,"单选","single","多选","multiOr")</f>
         <v>single</v>
       </c>
-      <c r="K2" t="b">
-        <f t="shared" ref="K2:K64" si="2">IF(F2="否",FALSE,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="b">
+        <f t="shared" ref="L2:L64" si="2">IF(G2="否",FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="str">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="str">
         <f t="shared" si="0"/>
         <v>0-19,20-40,41-60,60+</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K3" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="str">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="str">
         <f t="shared" si="0"/>
         <v>0-1,2,3,4,5,5+</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K4" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="str">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="str">
         <f t="shared" si="0"/>
         <v>城区,乡镇,农村</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K5" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="str">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="0"/>
         <v>是,否</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K6" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="str">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="str">
         <f t="shared" si="0"/>
         <v>是,否</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K7" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="str">
+        <v>39</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="str">
         <f t="shared" si="0"/>
         <v>是,否</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K8" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" t="str">
+        <v>41</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="str">
         <f t="shared" si="0"/>
         <v>是,否</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="str">
+        <v>43</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="str">
         <f t="shared" si="0"/>
         <v>是,否</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K10" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" t="str">
+        <v>45</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" t="str">
         <f t="shared" si="0"/>
         <v>是,否</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K11" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" t="str">
+        <v>47</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="str">
         <f t="shared" si="0"/>
         <v>是,否</v>
       </c>
-      <c r="J12" t="str">
+      <c r="K12" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K12" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" t="str">
+        <v>49</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" t="str">
         <f t="shared" si="0"/>
         <v>是,否</v>
       </c>
-      <c r="J13" t="str">
+      <c r="K13" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K13" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>苹果,华为,oppo,vivo,小米,其他</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v>multiOr</v>
+      </c>
+      <c r="L14" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="0"/>
-        <v>苹果,华为,oppo,vivo,小米,其他</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="1"/>
-        <v>multiOr</v>
-      </c>
-      <c r="K14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" t="str">
+        <v>55</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" t="str">
         <f t="shared" si="0"/>
         <v>是,否</v>
       </c>
-      <c r="J15" t="str">
+      <c r="K15" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K15" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" t="str">
+        <v>57</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" t="str">
         <f t="shared" si="0"/>
         <v>是,否</v>
       </c>
-      <c r="J16" t="str">
+      <c r="K16" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K16" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" t="str">
+        <v>59</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" t="str">
         <f t="shared" si="0"/>
         <v>是,否</v>
       </c>
-      <c r="J17" t="str">
+      <c r="K17" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K17" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" t="str">
+        <v>61</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" t="str">
         <f t="shared" si="0"/>
         <v>是,否</v>
       </c>
-      <c r="J18" t="str">
+      <c r="K18" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K18" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" t="str">
+        <v>63</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" t="str">
         <f t="shared" si="0"/>
         <v>是,否</v>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K19" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" t="str">
+        <v>65</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" t="str">
         <f t="shared" si="0"/>
         <v>是,否</v>
       </c>
-      <c r="J20" t="str">
+      <c r="K20" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K20" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" t="str">
+        <v>67</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" t="str">
         <f t="shared" si="0"/>
         <v>是,否</v>
       </c>
-      <c r="J21" t="str">
+      <c r="K21" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K21" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="13.6" spans="1:11">
+      <c r="L21" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="13.6" spans="1:12">
       <c r="A22" s="3"/>
       <c r="B22" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" t="str">
+        <v>69</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" t="str">
         <f t="shared" si="0"/>
         <v>是,否</v>
       </c>
-      <c r="J22" t="str">
+      <c r="K22" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K22" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="13.6" spans="1:11">
+      <c r="L22" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="13.6" spans="1:12">
       <c r="A23" s="3"/>
       <c r="B23" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>67</v>
+        <v>17</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" t="str">
+        <v>71</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" t="str">
         <f t="shared" si="0"/>
         <v>是,否</v>
       </c>
-      <c r="J23" t="str">
+      <c r="K23" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K23" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>71</v>
+        <v>17</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" t="str">
+        <v>76</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" t="str">
         <f t="shared" si="0"/>
         <v>(0-38],(39-58],(59-68],(69-98],(99-168],168+</v>
       </c>
-      <c r="J24" t="str">
+      <c r="K24" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K24" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="3"/>
       <c r="B25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>74</v>
+        <v>17</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" t="str">
+        <v>79</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" t="str">
         <f t="shared" si="0"/>
         <v>0,(0-10],(10-30],30+</v>
       </c>
-      <c r="J25" t="str">
+      <c r="K25" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K25" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="3"/>
       <c r="B26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>77</v>
+        <v>17</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" t="str">
+        <v>82</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" t="str">
         <f t="shared" si="0"/>
         <v>[0-10],(10-30],30+</v>
       </c>
-      <c r="J26" t="str">
+      <c r="K26" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K26" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="3"/>
       <c r="B27" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>80</v>
+        <v>17</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I27" t="str">
+        <v>85</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" t="str">
         <f t="shared" si="0"/>
         <v>[0-30],(30-60],(60-90],(90-120],(120-180],180+</v>
       </c>
-      <c r="J27" t="str">
+      <c r="K27" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K27" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="3"/>
       <c r="B28" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I28" t="str">
+        <v>88</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" t="str">
         <f t="shared" si="0"/>
         <v>[0-38],(39-58],(59-68],(69-98],(99-168],168+</v>
       </c>
-      <c r="J28" t="str">
+      <c r="K28" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K28" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="3"/>
       <c r="B29" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>86</v>
+        <v>17</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I29" t="str">
+        <v>91</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" t="str">
         <f t="shared" si="0"/>
         <v>0,(0-10],(10-20],(20-30],(30-50],50+</v>
       </c>
-      <c r="J29" t="str">
+      <c r="K29" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K29" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="3"/>
       <c r="B30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>89</v>
+        <v>17</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I30" t="str">
+        <v>94</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J30" t="str">
         <f t="shared" si="0"/>
         <v>0,(0-10],(10-20],(20-30],30+</v>
       </c>
-      <c r="J30" t="str">
+      <c r="K30" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K30" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="3"/>
       <c r="B31" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I31" t="str">
+        <v>95</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" t="str">
         <f t="shared" si="0"/>
         <v>[0-40],(40-80],(80-120],(120-160],(160-200],200+</v>
       </c>
-      <c r="J31" t="str">
+      <c r="K31" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K31" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="3"/>
       <c r="B32" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>92</v>
+        <v>17</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I32" t="str">
+        <v>97</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J32" t="str">
         <f t="shared" si="0"/>
         <v>[0-30],(30-200],(200-300],(300-500],(500-800],800+</v>
       </c>
-      <c r="J32" t="str">
+      <c r="K32" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K32" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="3"/>
       <c r="B33" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>94</v>
+        <v>17</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I33" t="str">
+        <v>99</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J33" t="str">
         <f t="shared" si="0"/>
         <v>[0-1],(1-10],(10-30],(30-40],(40-50],50+</v>
       </c>
-      <c r="J33" t="str">
+      <c r="K33" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K33" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>97</v>
+        <v>17</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I34" t="str">
+        <v>102</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J34" t="str">
         <f t="shared" si="0"/>
         <v>是,否</v>
       </c>
-      <c r="J34" t="str">
+      <c r="K34" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K34" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>99</v>
+        <v>17</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I35" t="str">
+        <v>104</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J35" t="str">
         <f t="shared" si="0"/>
         <v>是,否</v>
       </c>
-      <c r="J35" t="str">
+      <c r="K35" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K35" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>103</v>
+        <v>17</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I36" t="str">
+        <v>108</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36" t="str">
         <f t="shared" si="0"/>
         <v>0,1-100,101-200,201-400,401-600,600+</v>
       </c>
-      <c r="J36" t="str">
+      <c r="K36" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K36" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="8"/>
       <c r="B37" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>106</v>
+        <v>17</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I37" t="str">
+        <v>111</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J37" t="str">
         <f t="shared" si="0"/>
         <v>0,(0-100],(100-300],(300-600],(600-1000],1000+</v>
       </c>
-      <c r="J37" t="str">
+      <c r="K37" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K37" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="8"/>
       <c r="B38" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>109</v>
+        <v>17</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I38" t="str">
+        <v>114</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" t="str">
         <f t="shared" si="0"/>
         <v>0,(0-60],(60-120],(120-180],(180-240],240+</v>
       </c>
-      <c r="J38" t="str">
+      <c r="K38" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K38" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="8"/>
       <c r="B39" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>112</v>
+        <v>17</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I39" t="str">
+        <v>117</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J39" t="str">
         <f t="shared" si="0"/>
         <v>0,1-3,4-6,7-10,10+</v>
       </c>
-      <c r="J39" t="str">
+      <c r="K39" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K39" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="8"/>
       <c r="B40" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>115</v>
+        <v>17</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I40" t="str">
+        <v>120</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J40" t="str">
         <f t="shared" si="0"/>
         <v>0,(0-15],(15-30],(30-45],(45-60],60+</v>
       </c>
-      <c r="J40" t="str">
+      <c r="K40" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K40" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="8"/>
       <c r="B41" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>108</v>
+        <v>121</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>117</v>
+        <v>17</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I41" t="str">
+        <v>122</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J41" t="str">
         <f t="shared" si="0"/>
         <v>0,(0-60],(60-120],(120-180],(180-240],240+</v>
       </c>
-      <c r="J41" t="str">
+      <c r="K41" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K41" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="8"/>
       <c r="B42" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>119</v>
+        <v>17</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I42" t="str">
+        <v>124</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J42" t="str">
         <f t="shared" si="0"/>
         <v>是,否</v>
       </c>
-      <c r="J42" t="str">
+      <c r="K42" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K42" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="8"/>
       <c r="B43" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>122</v>
+        <v>17</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I43" t="str">
+        <v>127</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J43" t="str">
         <f t="shared" si="0"/>
         <v>0,1-3,4-9,9+</v>
       </c>
-      <c r="J43" t="str">
+      <c r="K43" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K43" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="8"/>
       <c r="B44" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>125</v>
+        <v>17</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I44" t="str">
+        <v>130</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J44" t="str">
         <f t="shared" si="0"/>
         <v>0,1-3,3+</v>
       </c>
-      <c r="J44" t="str">
+      <c r="K44" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K44" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="8"/>
       <c r="B45" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>127</v>
+        <v>17</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I45" t="str">
+        <v>132</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J45" t="str">
         <f t="shared" si="0"/>
         <v>0,1-3,3+</v>
       </c>
-      <c r="J45" t="str">
+      <c r="K45" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K45" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="8"/>
       <c r="B46" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>129</v>
+        <v>17</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I46" t="str">
+        <v>134</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J46" t="str">
         <f t="shared" si="0"/>
         <v>0,1-3,3+</v>
       </c>
-      <c r="J46" t="str">
+      <c r="K46" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K46" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="8"/>
       <c r="B47" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>131</v>
+        <v>17</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I47" t="str">
+        <v>136</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J47" t="str">
         <f t="shared" si="0"/>
         <v>0,1-3,3+</v>
       </c>
-      <c r="J47" t="str">
+      <c r="K47" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K47" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="8"/>
       <c r="B48" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>133</v>
+        <v>17</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I48" t="str">
+        <v>138</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J48" t="str">
         <f t="shared" si="0"/>
         <v>0,1-3,3+</v>
       </c>
-      <c r="J48" t="str">
+      <c r="K48" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K48" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="8"/>
       <c r="B49" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>135</v>
+        <v>17</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I49" t="str">
+        <v>140</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J49" t="str">
         <f t="shared" si="0"/>
         <v>0,1-3,3+</v>
       </c>
-      <c r="J49" t="str">
+      <c r="K49" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K49" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="8"/>
       <c r="B50" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>137</v>
+        <v>17</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I50" t="str">
+        <v>142</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J50" t="str">
         <f t="shared" si="0"/>
         <v>0,1-3,3+</v>
       </c>
-      <c r="J50" t="str">
+      <c r="K50" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K50" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="8"/>
       <c r="B51" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>139</v>
+        <v>17</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I51" t="str">
+        <v>144</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J51" t="str">
         <f t="shared" si="0"/>
         <v>0,1-3,3+</v>
       </c>
-      <c r="J51" t="str">
+      <c r="K51" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K51" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="8"/>
       <c r="B52" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>141</v>
+        <v>17</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I52" t="str">
+        <v>146</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J52" t="str">
         <f t="shared" si="0"/>
         <v>0,1-3,3+</v>
       </c>
-      <c r="J52" t="str">
+      <c r="K52" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K52" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="8"/>
       <c r="B53" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>144</v>
+        <v>17</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I53" t="str">
+        <v>149</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J53" t="str">
         <f t="shared" si="0"/>
         <v>0,1-5,5+</v>
       </c>
-      <c r="J53" t="str">
+      <c r="K53" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K53" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="8"/>
       <c r="B54" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>147</v>
+        <v>17</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I54" t="str">
+        <v>152</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J54" t="str">
         <f t="shared" si="0"/>
         <v>0,1-5,6-10,11-15,15+</v>
       </c>
-      <c r="J54" t="str">
+      <c r="K54" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K54" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="8"/>
       <c r="B55" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>149</v>
+        <v>17</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I55" t="str">
+        <v>154</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J55" t="str">
         <f t="shared" si="0"/>
         <v>0,1-5,6-10,11-15,15+</v>
       </c>
-      <c r="J55" t="str">
+      <c r="K55" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K55" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="8"/>
       <c r="B56" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>152</v>
+        <v>17</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I56" t="str">
+        <v>157</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J56" t="str">
         <f t="shared" si="0"/>
         <v>[0-1],(1-5],(5-10],(10-15],(15-20],20+</v>
       </c>
-      <c r="J56" t="str">
+      <c r="K56" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K56" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="8"/>
       <c r="B57" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>155</v>
+        <v>17</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I57" t="str">
+        <v>160</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J57" t="str">
         <f t="shared" si="0"/>
         <v>[0-1],(1-5],(5-10],(10-20],(20-40],40+</v>
       </c>
-      <c r="J57" t="str">
+      <c r="K57" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K57" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="8"/>
       <c r="B58" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>158</v>
+        <v>17</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I58" t="str">
+        <v>163</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J58" t="str">
         <f t="shared" si="0"/>
         <v>[0-1],(1-2],(2-5],(5-10],(10-20],20+</v>
       </c>
-      <c r="J58" t="str">
+      <c r="K58" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K58" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="8"/>
       <c r="B59" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>160</v>
+        <v>17</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I59" t="str">
+        <v>165</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J59" t="str">
         <f t="shared" si="0"/>
         <v>[0-1],(1-2],(2-5],(5-10],(10-20],20+</v>
       </c>
-      <c r="J59" t="str">
+      <c r="K59" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K59" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="8"/>
       <c r="B60" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>154</v>
+        <v>166</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>162</v>
+        <v>17</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I60" t="str">
+        <v>167</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J60" t="str">
         <f t="shared" si="0"/>
         <v>[0-1],(1-5],(5-10],(10-20],(20-40],40+</v>
       </c>
-      <c r="J60" t="str">
+      <c r="K60" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K60" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="8"/>
       <c r="B61" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>154</v>
+        <v>168</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>164</v>
+        <v>17</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I61" t="str">
+        <v>169</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J61" t="str">
         <f t="shared" si="0"/>
         <v>[0-1],(1-5],(5-10],(10-20],(20-40],40+</v>
       </c>
-      <c r="J61" t="str">
+      <c r="K61" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K61" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="8"/>
       <c r="B62" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>154</v>
+        <v>170</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>166</v>
+        <v>17</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I62" t="str">
+        <v>171</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J62" t="str">
         <f t="shared" si="0"/>
         <v>[0-1],(1-5],(5-10],(10-20],(20-40],40+</v>
       </c>
-      <c r="J62" t="str">
+      <c r="K62" t="str">
         <f t="shared" si="1"/>
         <v>multiOr</v>
       </c>
-      <c r="K62" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="9"/>
       <c r="B63" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>157</v>
+        <v>172</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v>[0-1],(1-2],(2-5],(5-10],(10-20],20+</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="1"/>
+        <v>multiOr</v>
+      </c>
+      <c r="L63" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" ht="40.8" spans="1:12">
+      <c r="A64" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I63" t="str">
-        <f t="shared" si="0"/>
-        <v>[0-1],(1-2],(2-5],(5-10],(10-20],20+</v>
-      </c>
-      <c r="J63" t="str">
-        <f t="shared" si="1"/>
-        <v>multiOr</v>
-      </c>
-      <c r="K63" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" ht="40.8" spans="1:11">
-      <c r="A64" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>173</v>
+      <c r="F64" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I64" t="str">
+        <v>178</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J64" t="str">
         <f t="shared" si="0"/>
         <v>所有,愿意接听电话,一般,拒绝接听电话</v>
       </c>
-      <c r="J64" t="str">
+      <c r="K64" t="str">
         <f t="shared" si="1"/>
         <v>single</v>
       </c>
-      <c r="K64" t="b">
+      <c r="L64" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="9:9">
-      <c r="I65" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C65,"以上","+"),"、",",="),"，",",=")</f>
+    <row r="65" spans="10:10">
+      <c r="J65" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D65,"以上","+"),"、",",="),"，",",=")</f>
         <v/>
       </c>
     </row>
@@ -3913,5 +4163,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/重庆多条件组合查询-代码生成配置.xlsx
+++ b/重庆多条件组合查询-代码生成配置.xlsx
@@ -93,7 +93,7 @@
     <t>枚举值</t>
   </si>
   <si>
-    <t>男、女</t>
+    <t>未知=0、男=1、女=2</t>
   </si>
   <si>
     <t>单选</t>
@@ -150,7 +150,7 @@
     <t>布尔值</t>
   </si>
   <si>
-    <t>是，否</t>
+    <t>否=0，是=1</t>
   </si>
   <si>
     <t>is_school</t>
@@ -549,25 +549,25 @@
     <t>抖音APP流量</t>
   </si>
   <si>
-    <t>Douyin_flow</t>
+    <t>douyin_app_flow</t>
   </si>
   <si>
     <t>腾讯视频APP流量</t>
   </si>
   <si>
-    <t>TX_flow</t>
+    <t>tencent_video_app_flow</t>
   </si>
   <si>
     <t>爱奇艺视频APP流量</t>
   </si>
   <si>
-    <t>QIY_flow</t>
+    <t>aiqiyi_video_app_flow</t>
   </si>
   <si>
     <t>微信业务流量</t>
   </si>
   <si>
-    <t>Wxin_flow</t>
+    <t>weixin_app_flow</t>
   </si>
   <si>
     <t>心里特征</t>
@@ -576,10 +576,10 @@
     <t>愿意接听电话倾向</t>
   </si>
   <si>
-    <t>所有、愿意接听电话、一般、拒绝接听电话</t>
-  </si>
-  <si>
-    <t>是，默认为“所有”</t>
+    <t>所有=4、愿意接听电话=1、一般=2、拒绝接听电话=3</t>
+  </si>
+  <si>
+    <t>is_answer</t>
   </si>
   <si>
     <t>answercalls</t>
@@ -591,9 +591,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -608,6 +608,13 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -633,33 +640,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,6 +660,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -696,40 +695,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -749,7 +719,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,7 +793,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,7 +895,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,13 +931,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,133 +961,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,23 +1024,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,17 +1078,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,174 +1118,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1625,8 +1625,8 @@
   <sheetPr/>
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72072072072072" defaultRowHeight="13.5"/>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="J2" t="str">
         <f t="shared" ref="J2:J64" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D2,"以上","+"),"、",","),"，",",")</f>
-        <v>男,女</v>
+        <v>未知=0,男=1,女=2</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K64" si="1">_xlfn.SWITCH(E2,"单选","single","多选","multiOr")</f>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>是,否</v>
+        <v>否=0,是=1</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="1"/>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>是,否</v>
+        <v>否=0,是=1</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>是,否</v>
+        <v>否=0,是=1</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>是,否</v>
+        <v>否=0,是=1</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>是,否</v>
+        <v>否=0,是=1</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>是,否</v>
+        <v>否=0,是=1</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>是,否</v>
+        <v>否=0,是=1</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>是,否</v>
+        <v>否=0,是=1</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="1"/>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>是,否</v>
+        <v>否=0,是=1</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>是,否</v>
+        <v>否=0,是=1</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="1"/>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>是,否</v>
+        <v>否=0,是=1</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="1"/>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
-        <v>是,否</v>
+        <v>否=0,是=1</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="1"/>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>是,否</v>
+        <v>否=0,是=1</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>是,否</v>
+        <v>否=0,是=1</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>是,否</v>
+        <v>否=0,是=1</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="1"/>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>是,否</v>
+        <v>否=0,是=1</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="1"/>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>是,否</v>
+        <v>否=0,是=1</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="1"/>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
-        <v>是,否</v>
+        <v>否=0,是=1</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
-        <v>是,否</v>
+        <v>否=0,是=1</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="J42" t="str">
         <f t="shared" si="0"/>
-        <v>是,否</v>
+        <v>否=0,是=1</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="1"/>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="40.8" spans="1:12">
+    <row r="64" ht="13.6" spans="1:12">
       <c r="A64" s="4" t="s">
         <v>174</v>
       </c>
@@ -4127,17 +4127,17 @@
         <v>17</v>
       </c>
       <c r="G64" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>178</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="0"/>
-        <v>所有,愿意接听电话,一般,拒绝接听电话</v>
+        <v>所有=4,愿意接听电话=1,一般=2,拒绝接听电话=3</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="1"/>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="L64" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="10:10">

--- a/重庆多条件组合查询-代码生成配置.xlsx
+++ b/重庆多条件组合查询-代码生成配置.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="182">
   <si>
     <t>个性指标分类</t>
   </si>
@@ -339,16 +339,25 @@
     <t>[0-40],(40-80],(80-120],(120-160],(160-200]，200以上</t>
   </si>
   <si>
+    <t>arpu</t>
+  </si>
+  <si>
     <t>MOU</t>
   </si>
   <si>
     <t>[0-30],(30-200],(200-300],(300-500],(500-800],800以上</t>
   </si>
   <si>
+    <t>mou</t>
+  </si>
+  <si>
     <t>DOU</t>
   </si>
   <si>
     <t>[0-1]，(1-10]，(10-30]，(30-40]，(40-50]，50以上</t>
+  </si>
+  <si>
+    <t>dou</t>
   </si>
   <si>
     <t>是否办理不限量叠加包</t>
@@ -590,10 +599,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -619,7 +628,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,23 +650,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,6 +681,51 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -689,17 +735,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -713,43 +759,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,19 +790,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,7 +856,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,13 +886,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,19 +928,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,67 +946,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,31 +964,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,11 +1039,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,45 +1119,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1103,166 +1127,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1625,8 +1634,8 @@
   <sheetPr/>
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72072072072072" defaultRowHeight="13.5"/>
@@ -2839,10 +2848,10 @@
         <v>18</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
@@ -2860,13 +2869,13 @@
     <row r="32" spans="1:12">
       <c r="A32" s="3"/>
       <c r="B32" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>24</v>
@@ -2878,10 +2887,10 @@
         <v>18</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
@@ -2899,13 +2908,13 @@
     <row r="33" spans="1:12">
       <c r="A33" s="3"/>
       <c r="B33" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>24</v>
@@ -2917,10 +2926,10 @@
         <v>18</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
@@ -2938,7 +2947,7 @@
     <row r="34" spans="1:12">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>33</v>
@@ -2956,10 +2965,10 @@
         <v>18</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
@@ -2977,7 +2986,7 @@
     <row r="35" spans="1:12">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>33</v>
@@ -2995,10 +3004,10 @@
         <v>18</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
@@ -3015,16 +3024,16 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>24</v>
@@ -3036,10 +3045,10 @@
         <v>18</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="0"/>
@@ -3057,13 +3066,13 @@
     <row r="37" spans="1:12">
       <c r="A37" s="8"/>
       <c r="B37" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>24</v>
@@ -3075,10 +3084,10 @@
         <v>18</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="0"/>
@@ -3096,13 +3105,13 @@
     <row r="38" spans="1:12">
       <c r="A38" s="8"/>
       <c r="B38" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>24</v>
@@ -3114,10 +3123,10 @@
         <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="0"/>
@@ -3135,13 +3144,13 @@
     <row r="39" spans="1:12">
       <c r="A39" s="8"/>
       <c r="B39" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>24</v>
@@ -3153,10 +3162,10 @@
         <v>18</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="0"/>
@@ -3174,13 +3183,13 @@
     <row r="40" spans="1:12">
       <c r="A40" s="8"/>
       <c r="B40" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>24</v>
@@ -3192,10 +3201,10 @@
         <v>18</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="0"/>
@@ -3213,13 +3222,13 @@
     <row r="41" spans="1:12">
       <c r="A41" s="8"/>
       <c r="B41" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>24</v>
@@ -3231,10 +3240,10 @@
         <v>18</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="0"/>
@@ -3252,7 +3261,7 @@
     <row r="42" spans="1:12">
       <c r="A42" s="8"/>
       <c r="B42" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>33</v>
@@ -3270,10 +3279,10 @@
         <v>18</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="0"/>
@@ -3291,13 +3300,13 @@
     <row r="43" spans="1:12">
       <c r="A43" s="8"/>
       <c r="B43" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>24</v>
@@ -3309,10 +3318,10 @@
         <v>18</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="0"/>
@@ -3330,13 +3339,13 @@
     <row r="44" spans="1:12">
       <c r="A44" s="8"/>
       <c r="B44" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>24</v>
@@ -3348,10 +3357,10 @@
         <v>18</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="0"/>
@@ -3369,13 +3378,13 @@
     <row r="45" spans="1:12">
       <c r="A45" s="8"/>
       <c r="B45" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>24</v>
@@ -3387,10 +3396,10 @@
         <v>18</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="0"/>
@@ -3408,13 +3417,13 @@
     <row r="46" spans="1:12">
       <c r="A46" s="8"/>
       <c r="B46" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>24</v>
@@ -3426,10 +3435,10 @@
         <v>18</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" si="0"/>
@@ -3447,13 +3456,13 @@
     <row r="47" spans="1:12">
       <c r="A47" s="8"/>
       <c r="B47" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>24</v>
@@ -3465,10 +3474,10 @@
         <v>18</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="0"/>
@@ -3486,13 +3495,13 @@
     <row r="48" spans="1:12">
       <c r="A48" s="8"/>
       <c r="B48" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>24</v>
@@ -3504,10 +3513,10 @@
         <v>18</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="0"/>
@@ -3525,13 +3534,13 @@
     <row r="49" spans="1:12">
       <c r="A49" s="8"/>
       <c r="B49" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>24</v>
@@ -3543,10 +3552,10 @@
         <v>18</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="0"/>
@@ -3564,13 +3573,13 @@
     <row r="50" spans="1:12">
       <c r="A50" s="8"/>
       <c r="B50" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>24</v>
@@ -3582,10 +3591,10 @@
         <v>18</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="0"/>
@@ -3603,13 +3612,13 @@
     <row r="51" spans="1:12">
       <c r="A51" s="8"/>
       <c r="B51" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>24</v>
@@ -3621,10 +3630,10 @@
         <v>18</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="0"/>
@@ -3642,13 +3651,13 @@
     <row r="52" spans="1:12">
       <c r="A52" s="8"/>
       <c r="B52" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>24</v>
@@ -3660,10 +3669,10 @@
         <v>18</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="0"/>
@@ -3681,13 +3690,13 @@
     <row r="53" spans="1:12">
       <c r="A53" s="8"/>
       <c r="B53" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>24</v>
@@ -3699,10 +3708,10 @@
         <v>18</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="0"/>
@@ -3720,13 +3729,13 @@
     <row r="54" spans="1:12">
       <c r="A54" s="8"/>
       <c r="B54" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>24</v>
@@ -3738,10 +3747,10 @@
         <v>18</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" si="0"/>
@@ -3759,13 +3768,13 @@
     <row r="55" spans="1:12">
       <c r="A55" s="8"/>
       <c r="B55" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>24</v>
@@ -3777,10 +3786,10 @@
         <v>18</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" si="0"/>
@@ -3798,13 +3807,13 @@
     <row r="56" spans="1:12">
       <c r="A56" s="8"/>
       <c r="B56" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>24</v>
@@ -3816,10 +3825,10 @@
         <v>18</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="0"/>
@@ -3837,13 +3846,13 @@
     <row r="57" spans="1:12">
       <c r="A57" s="8"/>
       <c r="B57" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>24</v>
@@ -3855,10 +3864,10 @@
         <v>18</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="0"/>
@@ -3876,13 +3885,13 @@
     <row r="58" spans="1:12">
       <c r="A58" s="8"/>
       <c r="B58" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>24</v>
@@ -3894,10 +3903,10 @@
         <v>18</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="0"/>
@@ -3915,13 +3924,13 @@
     <row r="59" spans="1:12">
       <c r="A59" s="8"/>
       <c r="B59" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>24</v>
@@ -3933,10 +3942,10 @@
         <v>18</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="0"/>
@@ -3954,13 +3963,13 @@
     <row r="60" spans="1:12">
       <c r="A60" s="8"/>
       <c r="B60" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>24</v>
@@ -3972,10 +3981,10 @@
         <v>18</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="0"/>
@@ -3993,13 +4002,13 @@
     <row r="61" spans="1:12">
       <c r="A61" s="8"/>
       <c r="B61" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>24</v>
@@ -4011,10 +4020,10 @@
         <v>18</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="0"/>
@@ -4032,13 +4041,13 @@
     <row r="62" spans="1:12">
       <c r="A62" s="8"/>
       <c r="B62" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>24</v>
@@ -4050,10 +4059,10 @@
         <v>18</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" si="0"/>
@@ -4071,13 +4080,13 @@
     <row r="63" spans="1:12">
       <c r="A63" s="9"/>
       <c r="B63" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>24</v>
@@ -4089,10 +4098,10 @@
         <v>18</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" si="0"/>
@@ -4109,16 +4118,16 @@
     </row>
     <row r="64" ht="13.6" spans="1:12">
       <c r="A64" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>16</v>
@@ -4130,10 +4139,10 @@
         <v>18</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="0"/>

--- a/重庆多条件组合查询-代码生成配置.xlsx
+++ b/重庆多条件组合查询-代码生成配置.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="189">
   <si>
     <t>个性指标分类</t>
   </si>
@@ -592,6 +592,27 @@
   </si>
   <si>
     <t>answercalls</t>
+  </si>
+  <si>
+    <t>流量敏感度</t>
+  </si>
+  <si>
+    <t>高=1，中=2，低=3</t>
+  </si>
+  <si>
+    <t>tariffSensitive</t>
+  </si>
+  <si>
+    <t>上网质量敏感度</t>
+  </si>
+  <si>
+    <t>onlineQualitySensitive</t>
+  </si>
+  <si>
+    <t>语音质量敏感度</t>
+  </si>
+  <si>
+    <t>voiceQualitySensitive</t>
   </si>
 </sst>
 </file>
@@ -599,9 +620,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -621,20 +642,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -649,6 +656,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -658,53 +672,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,16 +694,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,8 +709,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,6 +765,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,13 +811,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,13 +841,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,13 +889,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,61 +961,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,61 +985,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,6 +1054,54 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1056,48 +1125,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,165 +1148,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1632,10 +1653,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72072072072072" defaultRowHeight="13.5"/>
@@ -1723,11 +1744,11 @@
         <v>未知=0,男=1,女=2</v>
       </c>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K64" si="1">_xlfn.SWITCH(E2,"单选","single","多选","multiOr")</f>
+        <f t="shared" ref="K2:K65" si="1">_xlfn.SWITCH(E2,"单选","single","多选","multiOr")</f>
         <v>single</v>
       </c>
       <c r="L2" t="b">
-        <f t="shared" ref="L2:L64" si="2">IF(G2="否",FALSE,TRUE)</f>
+        <f t="shared" ref="L2:L65" si="2">IF(G2="否",FALSE,TRUE)</f>
         <v>0</v>
       </c>
     </row>
@@ -4157,10 +4178,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="10:10">
+    <row r="65" ht="13.6" spans="1:12">
+      <c r="A65" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="J65" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D65,"以上","+"),"、",",="),"，",",=")</f>
-        <v/>
+        <f t="shared" ref="J65:J67" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D65,"以上","+"),"、",",="),"，",",=")</f>
+        <v>高=1,=中=2,=低=3</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="1"/>
+        <v>single</v>
+      </c>
+      <c r="L65" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" ht="13.6" spans="1:12">
+      <c r="A66" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="3"/>
+        <v>高=1,=中=2,=低=3</v>
+      </c>
+      <c r="K66" t="str">
+        <f>_xlfn.SWITCH(E66,"单选","single","多选","multiOr")</f>
+        <v>single</v>
+      </c>
+      <c r="L66" t="b">
+        <f>IF(G66="否",FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" ht="13.6" spans="1:12">
+      <c r="A67" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="3"/>
+        <v>高=1,=中=2,=低=3</v>
+      </c>
+      <c r="K67" t="str">
+        <f>_xlfn.SWITCH(E67,"单选","single","多选","multiOr")</f>
+        <v>single</v>
+      </c>
+      <c r="L67" t="b">
+        <f>IF(G67="否",FALSE,TRUE)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
